--- a/engine/data/data.xlsx
+++ b/engine/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -35,6 +35,45 @@
   </si>
   <si>
     <t xml:space="preserve">6 x 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 / 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89 + 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 + 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 + 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 – 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 – 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 / 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 / 6</t>
   </si>
 </sst>
 </file>
@@ -110,8 +149,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,44 +347,148 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="265" zoomScaleNormal="265" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
